--- a/ReceiverInfo.xlsx
+++ b/ReceiverInfo.xlsx
@@ -21,16 +21,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>UserEmailAddress</t>
+    <t>ReceiverMailAddress</t>
   </si>
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t>uuovdmdvitzgoalm</t>
+    <t>aaryansource@gmail.com</t>
   </si>
   <si>
-    <t>aaryansource@gmail.com</t>
+    <t>uuovdmdvitzgoalm</t>
   </si>
 </sst>
 </file>
@@ -362,13 +362,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -381,10 +381,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
